--- a/NformTester/NformTester/keywordscripts/TST2751_DeviceStatusPriorityPolling.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2751_DeviceStatusPriorityPolling.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7900" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7908" uniqueCount="889">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3871,127 +3871,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>;Add one device.</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Clear up the alarms. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select 'Priority' for global on Server options window.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Generate one alarm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that: Nform will poll the status. The status of that device will change to alarm form normal.Click on Alarm icon the device will be seen on alarm device status gadget .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Clear the alarms for that device.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that: Nform will poll the status. The status of that device will change to normal form alarm. Click 'Normal' icon the device will be seen on normal device status gadget.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Pull out the cable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:Nform will poll the status. The Status of that device will change to "communication lost". Click No communication icon the device will be seen on no communication device status gadget.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Plug the cable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:Nform will poll the status. The status of that device will change to "Normal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select disabled on device properties window.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:Nform will stop poll the status for that device. Click 'Normal' icon the device will be seen on normal device status gadget.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Clear operation.</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>;The goal of this test is to verifythe functionality of device status polling by selecting the Priority on global status polling.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Add one device.</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>10.146.88.10</t>
+    <t>$SNMPdevice_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
+    <t>$GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Clear up the alarms. </t>
+    <t>$GXT_Ip_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select 'Priority' for global on Server options window.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Generate one alarm.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1:1:1.3.6.1.4.1.476.1.42.3.2.2.0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that: Nform will poll the status. The status of that device will change to alarm form normal.Click on Alarm icon the device will be seen on alarm device status gadget .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Clear the alarms for that device.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that: Nform will poll the status. The status of that device will change to normal form alarm. Click 'Normal' icon the device will be seen on normal device status gadget.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Pull out the cable.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:Nform will poll the status. The Status of that device will change to "communication lost". Click No communication icon the device will be seen on no communication device status gadget.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Plug the cable.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:Nform will poll the status. The status of that device will change to "Normal"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select disabled on device properties window.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:Nform will stop poll the status for that device. Click 'Normal' icon the device will be seen on normal device status gadget.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Clear operation.</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.146.88.10:163</t>
+    <t>"1:1:1.3.6.1.4.1.476.1.42.3.2.2.1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4530,9 +4531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4712,7 +4715,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>856</v>
+        <v>884</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4730,13 +4733,13 @@
         <v>832</v>
       </c>
       <c r="B7" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
@@ -4758,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4768,22 +4771,22 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>864</v>
       </c>
       <c r="N8" s="17"/>
     </row>
@@ -4798,7 +4801,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4824,13 +4827,13 @@
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4852,10 +4855,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2</v>
+        <v>863</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -4880,15 +4883,13 @@
         <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -4910,12 +4911,14 @@
         <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>864</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -4932,15 +4935,17 @@
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -4949,7 +4954,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="15">
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>839</v>
       </c>
@@ -4957,11 +4962,15 @@
       <c r="C15" s="4">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="10"/>
       <c r="I15" s="4"/>
@@ -4971,7 +4980,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="15">
       <c r="A16" s="2" t="s">
         <v>840</v>
       </c>
@@ -4979,18 +4988,12 @@
       <c r="C16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D16" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="10"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5014,7 +5017,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>2</v>
@@ -5039,10 +5042,10 @@
         <v>847</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>454</v>
+        <v>84</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>2</v>
@@ -5072,20 +5075,14 @@
         <v>450</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="J19" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -5106,14 +5103,20 @@
         <v>450</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="J20" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -5134,7 +5137,7 @@
         <v>450</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>2</v>
@@ -5158,7 +5161,7 @@
         <v>450</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>2</v>
@@ -5171,45 +5174,43 @@
       <c r="M22" s="4"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14" ht="15">
+    <row r="23" spans="1:14">
       <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="15">
       <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>814</v>
-      </c>
+      <c r="D24" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>874</v>
-      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -5220,57 +5221,59 @@
         <v>24</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F25" s="4">
-        <v>10</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="4"/>
+      <c r="H25" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>888</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:14" ht="15">
+    <row r="26" spans="1:14">
       <c r="C26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F26" s="4">
+        <v>10</v>
+      </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" ht="15">
       <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D27" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5290,14 +5293,12 @@
         <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -5310,57 +5311,59 @@
         <v>28</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F29" s="4">
-        <v>10</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+        <v>847</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:14" ht="15">
+    <row r="30" spans="1:14">
       <c r="C30" s="4">
         <v>29</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F30" s="4">
+        <v>10</v>
+      </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" ht="15">
       <c r="C31" s="4">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D31" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5383,11 +5386,9 @@
         <v>114</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>867</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5406,12 +5407,14 @@
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>864</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -5424,57 +5427,57 @@
         <v>33</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F34" s="4">
-        <v>5</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="3:14" ht="15">
+    <row r="35" spans="3:14">
       <c r="C35" s="4">
         <v>34</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="4"/>
+      <c r="D35" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:14" ht="15">
       <c r="C36" s="4">
         <v>35</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D36" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -5494,14 +5497,12 @@
         <v>19</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5514,97 +5515,99 @@
         <v>37</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F38" s="4">
-        <v>10</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+        <v>847</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="3:14" ht="15">
+    <row r="39" spans="3:14">
       <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="4"/>
+      <c r="D39" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F39" s="4">
+        <v>10</v>
+      </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="4"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" ht="15">
       <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F40" s="4">
-        <v>20</v>
-      </c>
+      <c r="D40" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="3:14" ht="15">
+    <row r="41" spans="3:14">
       <c r="C41" s="4">
         <v>40</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="4"/>
+      <c r="D41" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F41" s="4">
+        <v>20</v>
+      </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" ht="15">
       <c r="C42" s="4">
         <v>41</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D42" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -5624,14 +5627,12 @@
         <v>19</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5644,97 +5645,99 @@
         <v>43</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F44" s="4">
-        <v>5</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+        <v>847</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="3:14" ht="15">
+    <row r="45" spans="3:14">
       <c r="C45" s="4">
         <v>44</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="4"/>
+      <c r="D45" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5</v>
+      </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="3:14" ht="15">
       <c r="C46" s="4">
         <v>45</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F46" s="4">
-        <v>20</v>
-      </c>
+      <c r="D46" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="3:14" ht="15">
+    <row r="47" spans="3:14">
       <c r="C47" s="4">
         <v>46</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="4"/>
+      <c r="D47" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F47" s="4">
+        <v>20</v>
+      </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" ht="15">
       <c r="C48" s="4">
         <v>47</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D48" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -5754,14 +5757,12 @@
         <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -5774,57 +5775,59 @@
         <v>49</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F50" s="4">
-        <v>5</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+        <v>847</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="3:14" ht="15">
+    <row r="51" spans="3:14">
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="4"/>
+      <c r="D51" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F51" s="4">
+        <v>5</v>
+      </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="3:14">
+    <row r="52" spans="3:14" ht="15">
       <c r="C52" s="4">
         <v>51</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D52" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -5844,10 +5847,10 @@
         <v>19</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>883</v>
+        <v>22</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>866</v>
+        <v>2</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -5864,18 +5867,16 @@
       <c r="D54" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>632</v>
+      <c r="E54" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>633</v>
+        <v>879</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -5891,15 +5892,17 @@
         <v>847</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>582</v>
+        <v>633</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>886</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -5915,10 +5918,10 @@
         <v>847</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>2</v>
@@ -5939,10 +5942,10 @@
         <v>847</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>100</v>
+        <v>582</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>2</v>
@@ -5955,16 +5958,22 @@
       <c r="M57" s="4"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="3:14" ht="15">
+    <row r="58" spans="3:14">
       <c r="C58" s="4">
         <v>57</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="D58" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -5981,10 +5990,10 @@
         <v>847</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>632</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>2</v>
@@ -5997,25 +6006,17 @@
       <c r="M59" s="4"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="3:14">
+    <row r="60" spans="3:14" ht="15">
       <c r="C60" s="4">
         <v>59</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>861</v>
-      </c>
+      <c r="D60" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -6028,34 +6029,44 @@
         <v>60</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="F61" s="4">
-        <v>5</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+        <v>847</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="3:14" ht="15">
+    <row r="62" spans="3:14">
       <c r="C62" s="4">
         <v>61</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="10"/>
+      <c r="D62" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>886</v>
+      </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -6068,41 +6079,35 @@
         <v>62</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>811</v>
+        <v>866</v>
       </c>
       <c r="F63" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="10"/>
-      <c r="I63" s="4"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="3:14">
+    <row r="64" spans="3:14" ht="15">
       <c r="C64" s="4">
         <v>63</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D64" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -6114,19 +6119,17 @@
         <v>64</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -6138,45 +6141,43 @@
         <v>65</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>886</v>
+        <v>847</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>887</v>
+        <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>633</v>
+        <v>22</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="I66" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="3:14" ht="14.25">
+    <row r="67" spans="3:14">
       <c r="C67" s="4">
         <v>66</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>886</v>
+        <v>847</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>887</v>
+        <v>19</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="4"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -6188,18 +6189,20 @@
         <v>67</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>640</v>
+        <v>882</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>883</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>257</v>
+        <v>633</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>864</v>
+      </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -6207,24 +6210,24 @@
       <c r="M68" s="4"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="3:14">
+    <row r="69" spans="3:14" ht="14.25">
       <c r="C69" s="4">
         <v>68</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -6236,18 +6239,18 @@
         <v>69</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>19</v>
+        <v>882</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="4"/>
+      <c r="H70" s="10"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -6260,21 +6263,19 @@
         <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>847</v>
+        <v>882</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>19</v>
+        <v>883</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="I71" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -6292,7 +6293,7 @@
         <v>19</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>2</v>
@@ -6306,13 +6307,25 @@
       <c r="N72" s="17"/>
     </row>
     <row r="73" spans="3:14">
-      <c r="C73" s="4"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
+      <c r="C73" s="4">
+        <v>72</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -6320,32 +6333,42 @@
       <c r="N73" s="17"/>
     </row>
     <row r="74" spans="3:14">
-      <c r="C74" s="15"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
+      <c r="C74" s="4">
+        <v>73</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="6"/>
+      <c r="N74" s="17"/>
     </row>
     <row r="75" spans="3:14">
-      <c r="C75" s="15"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="6"/>
+      <c r="N75" s="17"/>
     </row>
     <row r="76" spans="3:14">
       <c r="C76" s="15"/>
@@ -6353,7 +6376,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
-      <c r="H76" s="4"/>
+      <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -6367,7 +6390,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="10"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -6377,13 +6400,13 @@
     </row>
     <row r="78" spans="3:14">
       <c r="C78" s="15"/>
-      <c r="D78" s="16"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="10"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -6391,13 +6414,13 @@
     </row>
     <row r="79" spans="3:14">
       <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -6410,8 +6433,8 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="10"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -6424,8 +6447,8 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="10"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -6517,12 +6540,12 @@
     </row>
     <row r="88" spans="3:14">
       <c r="C88" s="15"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -6531,21 +6554,49 @@
     </row>
     <row r="89" spans="3:14">
       <c r="C89" s="15"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="6"/>
     </row>
+    <row r="90" spans="3:14">
+      <c r="C90" s="15"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="6"/>
+    </row>
+    <row r="91" spans="3:14">
+      <c r="C91" s="15"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N89">
+  <conditionalFormatting sqref="N2:N91">
     <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6554,21 +6605,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F33 F2:F13 F16:F24 F26:F28 F39 F35:F37 F45 F41:F43 F47:F49 F51:F60 F62:F72 F74:F89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:F34 F76:F91 F17:F25 F27:F29 F40 F36:F38 F46 F42:F44 F48:F50 F52:F62 F64:F74 F2:F14">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G65 G67:G89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69:G91 G2:G67">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D64:D65 D59:D61 D52:D57 D40 D42:D44 D46 D48:D50 D36:D38 D31:D34 D16:D22 D10:D14 D8 D24:D25 D27:D29 D3:D4 D70:D73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66:D67 D61:D63 D10:D15 D41 D43:D45 D47 D49:D51 D37:D39 D32:D35 D17:D23 D72:D75 D8 D25:D26 D28:D30 D3:D4 D53:D59">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E91">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H26" r:id="rId1" display="http://10.130.112.3"/>
+    <hyperlink ref="H27" r:id="rId1" display="http://10.130.112.3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NformTester/NformTester/keywordscripts/TST2751_DeviceStatusPriorityPolling.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2751_DeviceStatusPriorityPolling.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7908" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="890">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3980,19 +3980,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_Ip_Port$</t>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"1:1:1.3.6.1.4.1.476.1.42.3.2.2.1"</t>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4533,19 +4537,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4709,7 +4714,7 @@
         <v>831</v>
       </c>
       <c r="B6" s="9">
-        <v>41134</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4754,9 +4759,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>885</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4774,10 +4779,10 @@
         <v>858</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>859</v>
@@ -4792,11 +4797,9 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>834</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4815,8 +4818,12 @@
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>834</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4841,10 +4848,8 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4870,7 +4875,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="4">
@@ -4898,7 +4903,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="4">
@@ -4928,7 +4933,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="4">
@@ -4956,7 +4961,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="4">
@@ -4982,7 +4987,7 @@
     </row>
     <row r="16" spans="1:14" ht="15">
       <c r="A16" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="4">
@@ -5003,10 +5008,10 @@
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="14" t="s">
-        <v>841</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5033,7 +5038,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5059,11 +5064,9 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>843</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="14" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5090,9 +5093,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B20" s="14"/>
+        <v>843</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>834</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5124,7 +5129,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="4">
@@ -5151,6 +5156,10 @@
       <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5229,13 +5238,13 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="10" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I25" s="10">
         <v>1</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -5323,7 +5332,7 @@
         <v>60</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5527,7 +5536,7 @@
         <v>60</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5657,7 +5666,7 @@
         <v>60</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5787,7 +5796,7 @@
         <v>60</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5901,7 +5910,7 @@
         <v>56</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -6065,7 +6074,7 @@
         <v>60</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
